--- a/src/rob/nav_test/nav_test.xlsx
+++ b/src/rob/nav_test/nav_test.xlsx
@@ -3,24 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24805"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="165" documentId="11_924805B546FA86936262E6F9983E8C1851038381" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE54018D-A8D5-4BB3-B042-2D1D7D1369D1}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="11_924805B546FA86936262E6F9983E8C1851038381" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{774973FE-B94F-43D0-AE32-F5B0B9BD29F3}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
-    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Ark1'!$B$10:$B$109</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Ark1'!$D$10:$D$109</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">'Ark1'!$M$10:$M$109</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">'Ark1'!$P$10:$P$109</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Ark1'!$B$10:$B$109</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Ark1'!$D$10:$D$109</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Ark1'!$F$10:$F$109</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Ark1'!$H$10:$H$109</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Ark1'!$J$10:$J$109</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Ark1'!$F$10:$F$109</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Ark1'!$H$10:$H$109</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Ark1'!$J$10:$J$109</definedName>
@@ -425,125 +419,6 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="3">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="4">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{CCEF3AD1-B650-4650-ADFC-5B126E72B00E}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f/>
-              <cx:v>1%</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{0A06D3D2-47FE-4BED-8A24-5DE9D7E05436}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f/>
-              <cx:v>2%</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{0BAE4547-7481-49FA-805C-40934FF712A6}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f/>
-              <cx:v>3%</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{2B3AC81E-C2DE-4B53-8818-34676E7A7237}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f/>
-              <cx:v>4%</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="3"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{6C06C278-1699-47FD-9A95-43AF84AAF2B3}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f/>
-              <cx:v>5%</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="4"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:title>
-          <cx:tx>
-            <cx:txData>
-              <cx:v>No. of nodes</cx:v>
-            </cx:txData>
-          </cx:tx>
-        </cx:title>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -664,46 +539,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -1735,521 +1570,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2979,92 +2299,6 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="10668000" y="5991225"/>
-              <a:ext cx="4572000" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr sz="1100"/>
-                <a:t>Dette diagram er ikke tilgængeligt i din version af Excel.
-Hvis du redigerer denne figur eller gemmer denne projektmappe i et andet filformat, ødelægges diagrammet permanent.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Diagram 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{494EDDDF-48BC-4DB2-8372-F43D824C7D13}"/>
-                </a:ext>
-                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1047FFA8-176B-4A9A-B164-00567274BAE5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3397,7 +2631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
@@ -8214,19 +7448,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B692ED-C6AD-4438-A598-440F38DAECF5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/rob/nav_test/nav_test.xlsx
+++ b/src/rob/nav_test/nav_test.xlsx
@@ -3,18 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24805"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="166" documentId="11_924805B546FA86936262E6F9983E8C1851038381" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{774973FE-B94F-43D0-AE32-F5B0B9BD29F3}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9976461476ece740/Uni/5Semester/RCAProject/src/rob/nav_test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="221" documentId="11_924805B546FA86936262E6F9983E8C1851038381" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADC00425-8AC5-4959-A29B-45C01A879979}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Ark1'!$B$10:$B$109</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Ark1'!$D$10:$D$109</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">'Ark1'!$M$10:$M$109</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">'Ark1'!$P$10:$P$109</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Ark1'!$B$10:$B$109</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Ark1'!$D$10:$D$109</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Ark1'!$F$10:$F$109</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Ark1'!$H$10:$H$109</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Ark1'!$J$10:$J$109</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Ark1'!$F$10:$F$109</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Ark1'!$H$10:$H$109</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Ark1'!$J$10:$J$109</definedName>
@@ -40,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Nodes</t>
   </si>
@@ -79,6 +91,15 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>x diff</t>
+  </si>
+  <si>
+    <t>y diff</t>
+  </si>
+  <si>
+    <t>dist</t>
   </si>
 </sst>
 </file>
@@ -168,6 +189,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CCEF3AD1-B650-4650-ADFC-5B126E72B00E}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>1%</cx:v>
             </cx:txData>
           </cx:tx>
@@ -180,6 +202,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0A06D3D2-47FE-4BED-8A24-5DE9D7E05436}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>2%</cx:v>
             </cx:txData>
           </cx:tx>
@@ -192,6 +215,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0BAE4547-7481-49FA-805C-40934FF712A6}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>3%</cx:v>
             </cx:txData>
           </cx:tx>
@@ -204,6 +228,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2B3AC81E-C2DE-4B53-8818-34676E7A7237}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>4%</cx:v>
             </cx:txData>
           </cx:tx>
@@ -216,6 +241,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6C06C278-1699-47FD-9A95-43AF84AAF2B3}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>5%</cx:v>
             </cx:txData>
           </cx:tx>
@@ -282,6 +308,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E65E191C-83B8-459B-ABC1-FD4E889170ED}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>1%</cx:v>
             </cx:txData>
           </cx:tx>
@@ -294,6 +321,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5418767E-75F6-47AB-89D9-C48E67B1BE29}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>2%</cx:v>
             </cx:txData>
           </cx:tx>
@@ -306,6 +334,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E6F029B3-BC02-4616-8241-AA2CD63040A5}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>3%</cx:v>
             </cx:txData>
           </cx:tx>
@@ -318,6 +347,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BFCC85D8-D4E5-4E26-850C-39D5D199A51C}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>4%</cx:v>
             </cx:txData>
           </cx:tx>
@@ -330,6 +360,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D485D50F-35AA-41CF-B9E6-CB2506CD686F}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>5%</cx:v>
             </cx:txData>
           </cx:tx>
@@ -345,13 +376,34 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling min="600"/>
+        <cx:valScaling max="950" min="550"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
-              <cx:v>Distance [pixels]</cx:v>
+              <cx:v>Path length [pixels]</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="da-DK" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Path length [pixels]</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
@@ -381,6 +433,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BF46D254-CFDF-4E8D-8083-4D617B645A4D}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -413,6 +466,142 @@
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.12</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.14</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.16</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{CCEF3AD1-B650-4650-ADFC-5B126E72B00E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>1%</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0A06D3D2-47FE-4BED-8A24-5DE9D7E05436}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>2%</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0BAE4547-7481-49FA-805C-40934FF712A6}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>3%</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{2B3AC81E-C2DE-4B53-8818-34676E7A7237}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>4%</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{6C06C278-1699-47FD-9A95-43AF84AAF2B3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>5%</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>No. of nodes</cx:v>
+            </cx:txData>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="900" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr sz="900"/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
@@ -539,6 +728,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -2084,20 +2313,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>169545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>471990</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129225</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2136,8 +2880,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10582275" y="161925"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2175,10 +2919,10 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>609150</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>45405</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2217,8 +2961,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10696575" y="3133725"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2256,10 +3000,10 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>580575</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>45405</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2298,8 +3042,94 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10668000" y="5991225"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr sz="1100"/>
+                <a:t>Dette diagram er ikke tilgængeligt i din version af Excel.
+Hvis du redigerer denne figur eller gemmer denne projektmappe i et andet filformat, ødelægges diagrammet permanent.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Diagram 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6EA3443-1D4E-4321-81B5-4D4438AC0346}"/>
+                </a:ext>
+                <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                  <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1047FFA8-176B-4A9A-B164-00567274BAE5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2629,18 +3459,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P109"/>
+  <dimension ref="A1:R109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W47" sqref="W47"/>
+    <sheetView tabSelected="1" topLeftCell="M13" workbookViewId="0">
+      <selection activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2684,7 +3514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2707,7 +3537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2727,7 +3557,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2780,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2833,7 +3663,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2886,7 +3716,7 @@
         <v>121.52</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2939,12 +3769,12 @@
         <v>134.33231033522799</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="B10">
         <v>781</v>
       </c>
@@ -2988,8 +3818,12 @@
         <f>O10-N10</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="R10">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="B11">
         <v>1459</v>
       </c>
@@ -3033,8 +3867,12 @@
         <f t="shared" ref="P11:P74" si="8">O11-N11</f>
         <v>199</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="R11">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="B12">
         <v>856</v>
       </c>
@@ -3078,8 +3916,12 @@
         <f t="shared" si="8"/>
         <v>355</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="R12">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="B13">
         <v>313</v>
       </c>
@@ -3123,8 +3965,12 @@
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="R13">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="B14">
         <v>115</v>
       </c>
@@ -3168,8 +4014,12 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="R14">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="B15">
         <v>146</v>
       </c>
@@ -3213,8 +4063,12 @@
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="R15">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="B16">
         <v>2120</v>
       </c>
@@ -3258,8 +4112,12 @@
         <f t="shared" si="8"/>
         <v>229</v>
       </c>
-    </row>
-    <row r="17" spans="2:16">
+      <c r="R16">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
       <c r="B17">
         <v>283</v>
       </c>
@@ -3303,8 +4161,12 @@
         <f t="shared" si="8"/>
         <v>470</v>
       </c>
-    </row>
-    <row r="18" spans="2:16">
+      <c r="R17">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
       <c r="B18">
         <v>135</v>
       </c>
@@ -3348,8 +4210,12 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:16">
+      <c r="R18">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
       <c r="B19">
         <v>133</v>
       </c>
@@ -3393,8 +4259,12 @@
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="2:16">
+      <c r="R19">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
       <c r="B20">
         <v>108</v>
       </c>
@@ -3438,8 +4308,12 @@
         <f t="shared" si="8"/>
         <v>121</v>
       </c>
-    </row>
-    <row r="21" spans="2:16">
+      <c r="R20">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
       <c r="B21">
         <v>1223</v>
       </c>
@@ -3483,8 +4357,12 @@
         <f t="shared" si="8"/>
         <v>174</v>
       </c>
-    </row>
-    <row r="22" spans="2:16">
+      <c r="R21">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
       <c r="B22">
         <v>623</v>
       </c>
@@ -3528,8 +4406,12 @@
         <f t="shared" si="8"/>
         <v>470</v>
       </c>
-    </row>
-    <row r="23" spans="2:16">
+      <c r="R22">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
       <c r="B23">
         <v>115</v>
       </c>
@@ -3573,8 +4455,12 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:16">
+      <c r="R23">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
       <c r="B24">
         <v>172</v>
       </c>
@@ -3618,8 +4504,12 @@
         <f t="shared" si="8"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="2:16">
+      <c r="R24">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
       <c r="B25">
         <v>461</v>
       </c>
@@ -3663,8 +4553,12 @@
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="2:16">
+      <c r="R25">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
       <c r="B26">
         <v>108</v>
       </c>
@@ -3708,8 +4602,12 @@
         <f t="shared" si="8"/>
         <v>438</v>
       </c>
-    </row>
-    <row r="27" spans="2:16">
+      <c r="R26">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
       <c r="B27">
         <v>111</v>
       </c>
@@ -3753,8 +4651,12 @@
         <f t="shared" si="8"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="28" spans="2:16">
+      <c r="R27">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
       <c r="B28">
         <v>275</v>
       </c>
@@ -3798,8 +4700,12 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:16">
+      <c r="R28">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
       <c r="B29">
         <v>1032</v>
       </c>
@@ -3843,8 +4749,12 @@
         <f t="shared" si="8"/>
         <v>201</v>
       </c>
-    </row>
-    <row r="30" spans="2:16">
+      <c r="R29">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18">
       <c r="B30">
         <v>922</v>
       </c>
@@ -3888,8 +4798,12 @@
         <f t="shared" si="8"/>
         <v>455</v>
       </c>
-    </row>
-    <row r="31" spans="2:16">
+      <c r="R30">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
       <c r="B31">
         <v>141</v>
       </c>
@@ -3933,8 +4847,12 @@
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="2:16">
+      <c r="R31">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
       <c r="B32">
         <v>136</v>
       </c>
@@ -3978,8 +4896,12 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:16">
+      <c r="R32">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18">
       <c r="B33">
         <v>608</v>
       </c>
@@ -4023,8 +4945,12 @@
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="2:16">
+      <c r="R33">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18">
       <c r="B34">
         <v>211</v>
       </c>
@@ -4068,8 +4994,12 @@
         <f t="shared" si="8"/>
         <v>161</v>
       </c>
-    </row>
-    <row r="35" spans="2:16">
+      <c r="R34">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18">
       <c r="B35">
         <v>146</v>
       </c>
@@ -4113,8 +5043,12 @@
         <f t="shared" si="8"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="2:16">
+      <c r="R35">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18">
       <c r="B36">
         <v>300</v>
       </c>
@@ -4158,8 +5092,12 @@
         <f t="shared" si="8"/>
         <v>223</v>
       </c>
-    </row>
-    <row r="37" spans="2:16">
+      <c r="R36">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18">
       <c r="B37">
         <v>199</v>
       </c>
@@ -4203,8 +5141,12 @@
         <f t="shared" si="8"/>
         <v>393</v>
       </c>
-    </row>
-    <row r="38" spans="2:16">
+      <c r="R37">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18">
       <c r="B38">
         <v>1117</v>
       </c>
@@ -4248,8 +5190,12 @@
         <f t="shared" si="8"/>
         <v>134</v>
       </c>
-    </row>
-    <row r="39" spans="2:16">
+      <c r="R38">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18">
       <c r="B39">
         <v>165</v>
       </c>
@@ -4293,8 +5239,12 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:16">
+      <c r="R39">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18">
       <c r="B40">
         <v>133</v>
       </c>
@@ -4338,8 +5288,12 @@
         <f t="shared" si="8"/>
         <v>188</v>
       </c>
-    </row>
-    <row r="41" spans="2:16">
+      <c r="R40">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18">
       <c r="B41">
         <v>169</v>
       </c>
@@ -4383,8 +5337,12 @@
         <f t="shared" si="8"/>
         <v>282</v>
       </c>
-    </row>
-    <row r="42" spans="2:16">
+      <c r="R41">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18">
       <c r="B42">
         <v>196</v>
       </c>
@@ -4428,8 +5386,12 @@
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="43" spans="2:16">
+      <c r="R42">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18">
       <c r="B43">
         <v>1202</v>
       </c>
@@ -4473,8 +5435,12 @@
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="2:16">
+      <c r="R43">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18">
       <c r="B44">
         <v>385</v>
       </c>
@@ -4518,8 +5484,12 @@
         <f t="shared" si="8"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="45" spans="2:16">
+      <c r="R44">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18">
       <c r="B45">
         <v>167</v>
       </c>
@@ -4563,8 +5533,12 @@
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="46" spans="2:16">
+      <c r="R45">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18">
       <c r="B46">
         <v>145</v>
       </c>
@@ -4608,8 +5582,12 @@
         <f t="shared" si="8"/>
         <v>306</v>
       </c>
-    </row>
-    <row r="47" spans="2:16">
+      <c r="R46">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18">
       <c r="B47">
         <v>1133</v>
       </c>
@@ -4653,8 +5631,12 @@
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="2:16">
+      <c r="R47">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18">
       <c r="B48">
         <v>109</v>
       </c>
@@ -4698,8 +5680,12 @@
         <f t="shared" si="8"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="2:16">
+      <c r="R48">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18">
       <c r="B49">
         <v>195</v>
       </c>
@@ -4743,8 +5729,12 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="2:16">
+      <c r="R49">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18">
       <c r="B50">
         <v>166</v>
       </c>
@@ -4788,8 +5778,12 @@
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="51" spans="2:16">
+      <c r="R50">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18">
       <c r="B51">
         <v>169</v>
       </c>
@@ -4833,8 +5827,12 @@
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="52" spans="2:16">
+      <c r="R51">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18">
       <c r="B52">
         <v>233</v>
       </c>
@@ -4878,8 +5876,12 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="2:16">
+      <c r="R52">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18">
       <c r="B53">
         <v>156</v>
       </c>
@@ -4923,8 +5925,12 @@
         <f t="shared" si="8"/>
         <v>162</v>
       </c>
-    </row>
-    <row r="54" spans="2:16">
+      <c r="R53">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18">
       <c r="B54">
         <v>1541</v>
       </c>
@@ -4968,8 +5974,12 @@
         <f t="shared" si="8"/>
         <v>106</v>
       </c>
-    </row>
-    <row r="55" spans="2:16">
+      <c r="R54">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18">
       <c r="B55">
         <v>122</v>
       </c>
@@ -5013,8 +6023,12 @@
         <f t="shared" si="8"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="56" spans="2:16">
+      <c r="R55">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18">
       <c r="B56">
         <v>307</v>
       </c>
@@ -5058,8 +6072,12 @@
         <f t="shared" si="8"/>
         <v>139</v>
       </c>
-    </row>
-    <row r="57" spans="2:16">
+      <c r="R56">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18">
       <c r="B57">
         <v>101</v>
       </c>
@@ -5103,8 +6121,12 @@
         <f t="shared" si="8"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="58" spans="2:16">
+      <c r="R57">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18">
       <c r="B58">
         <v>2868</v>
       </c>
@@ -5148,8 +6170,12 @@
         <f t="shared" si="8"/>
         <v>109</v>
       </c>
-    </row>
-    <row r="59" spans="2:16">
+      <c r="R58">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18">
       <c r="B59">
         <v>1291</v>
       </c>
@@ -5193,8 +6219,12 @@
         <f t="shared" si="8"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="60" spans="2:16">
+      <c r="R59">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18">
       <c r="B60">
         <v>292</v>
       </c>
@@ -5238,8 +6268,12 @@
         <f t="shared" si="8"/>
         <v>404</v>
       </c>
-    </row>
-    <row r="61" spans="2:16">
+      <c r="R60">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18">
       <c r="B61">
         <v>300</v>
       </c>
@@ -5283,8 +6317,12 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="2:16">
+      <c r="R61">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18">
       <c r="B62">
         <v>241</v>
       </c>
@@ -5328,8 +6366,12 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="2:16">
+      <c r="R62">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18">
       <c r="B63">
         <v>153</v>
       </c>
@@ -5373,8 +6415,12 @@
         <f>O63-N63</f>
         <v>43</v>
       </c>
-    </row>
-    <row r="64" spans="2:16">
+      <c r="R63">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18">
       <c r="B64">
         <v>508</v>
       </c>
@@ -5418,8 +6464,12 @@
         <f t="shared" si="8"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="65" spans="2:16">
+      <c r="R64">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18">
       <c r="B65">
         <v>1392</v>
       </c>
@@ -5463,8 +6513,12 @@
         <f t="shared" si="8"/>
         <v>209</v>
       </c>
-    </row>
-    <row r="66" spans="2:16">
+      <c r="R65">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18">
       <c r="B66">
         <v>153</v>
       </c>
@@ -5508,8 +6562,12 @@
         <f t="shared" si="8"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="67" spans="2:16">
+      <c r="R66">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18">
       <c r="B67">
         <v>1411</v>
       </c>
@@ -5553,8 +6611,12 @@
         <f t="shared" si="8"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="68" spans="2:16">
+      <c r="R67">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18">
       <c r="B68">
         <v>1505</v>
       </c>
@@ -5598,8 +6660,12 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="2:16">
+      <c r="R68">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18">
       <c r="B69">
         <v>597</v>
       </c>
@@ -5643,8 +6709,12 @@
         <f t="shared" si="8"/>
         <v>409</v>
       </c>
-    </row>
-    <row r="70" spans="2:16">
+      <c r="R69">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18">
       <c r="B70">
         <v>160</v>
       </c>
@@ -5688,8 +6758,12 @@
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="71" spans="2:16">
+      <c r="R70">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18">
       <c r="B71">
         <v>182</v>
       </c>
@@ -5733,8 +6807,12 @@
         <f t="shared" si="8"/>
         <v>179</v>
       </c>
-    </row>
-    <row r="72" spans="2:16">
+      <c r="R71">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18">
       <c r="B72">
         <v>160</v>
       </c>
@@ -5778,8 +6856,12 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:16">
+      <c r="R72">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18">
       <c r="B73">
         <v>139</v>
       </c>
@@ -5823,8 +6905,12 @@
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="74" spans="2:16">
+      <c r="R73">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18">
       <c r="B74">
         <v>167</v>
       </c>
@@ -5868,8 +6954,12 @@
         <f t="shared" si="8"/>
         <v>154</v>
       </c>
-    </row>
-    <row r="75" spans="2:16">
+      <c r="R74">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18">
       <c r="B75">
         <v>1022</v>
       </c>
@@ -5913,8 +7003,12 @@
         <f t="shared" ref="P75:P109" si="9">O75-N75</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="2:16">
+      <c r="R75">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18">
       <c r="B76">
         <v>1466</v>
       </c>
@@ -5958,8 +7052,12 @@
         <f t="shared" si="9"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="77" spans="2:16">
+      <c r="R76">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18">
       <c r="B77">
         <v>113</v>
       </c>
@@ -6003,8 +7101,12 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="2:16">
+      <c r="R77">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18">
       <c r="B78">
         <v>160</v>
       </c>
@@ -6048,8 +7150,12 @@
         <f t="shared" si="9"/>
         <v>498</v>
       </c>
-    </row>
-    <row r="79" spans="2:16">
+      <c r="R78">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18">
       <c r="B79">
         <v>244</v>
       </c>
@@ -6093,8 +7199,12 @@
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="80" spans="2:16">
+      <c r="R79">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18">
       <c r="B80">
         <v>133</v>
       </c>
@@ -6138,8 +7248,12 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="2:16">
+      <c r="R80">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18">
       <c r="B81">
         <v>1523</v>
       </c>
@@ -6183,8 +7297,12 @@
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="2:16">
+      <c r="R81">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18">
       <c r="B82">
         <v>1677</v>
       </c>
@@ -6228,8 +7346,12 @@
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="83" spans="2:16">
+      <c r="R82">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18">
       <c r="B83">
         <v>198</v>
       </c>
@@ -6273,8 +7395,12 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="2:16">
+      <c r="R83">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18">
       <c r="B84">
         <v>1382</v>
       </c>
@@ -6318,8 +7444,12 @@
         <f t="shared" si="9"/>
         <v>205</v>
       </c>
-    </row>
-    <row r="85" spans="2:16">
+      <c r="R84">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18">
       <c r="B85">
         <v>425</v>
       </c>
@@ -6363,8 +7493,12 @@
         <f t="shared" si="9"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="86" spans="2:16">
+      <c r="R85">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="86" spans="2:18">
       <c r="B86">
         <v>158</v>
       </c>
@@ -6408,8 +7542,12 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="2:16">
+      <c r="R86">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18">
       <c r="B87">
         <v>104</v>
       </c>
@@ -6453,8 +7591,12 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="2:16">
+      <c r="R87">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18">
       <c r="B88">
         <v>100</v>
       </c>
@@ -6498,8 +7640,12 @@
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="89" spans="2:16">
+      <c r="R88">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="89" spans="2:18">
       <c r="B89">
         <v>156</v>
       </c>
@@ -6543,8 +7689,12 @@
         <f t="shared" si="9"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="90" spans="2:16">
+      <c r="R89">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18">
       <c r="B90">
         <v>187</v>
       </c>
@@ -6588,8 +7738,12 @@
         <f t="shared" si="9"/>
         <v>266</v>
       </c>
-    </row>
-    <row r="91" spans="2:16">
+      <c r="R90">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="91" spans="2:18">
       <c r="B91">
         <v>665</v>
       </c>
@@ -6633,8 +7787,12 @@
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="92" spans="2:16">
+      <c r="R91">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18">
       <c r="B92">
         <v>179</v>
       </c>
@@ -6678,8 +7836,12 @@
         <f t="shared" si="9"/>
         <v>128</v>
       </c>
-    </row>
-    <row r="93" spans="2:16">
+      <c r="R92">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="93" spans="2:18">
       <c r="B93">
         <v>100</v>
       </c>
@@ -6723,8 +7885,12 @@
         <f t="shared" si="9"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="94" spans="2:16">
+      <c r="R93">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="94" spans="2:18">
       <c r="B94">
         <v>141</v>
       </c>
@@ -6768,8 +7934,12 @@
         <f t="shared" si="9"/>
         <v>202</v>
       </c>
-    </row>
-    <row r="95" spans="2:16">
+      <c r="R94">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="95" spans="2:18">
       <c r="B95">
         <v>146</v>
       </c>
@@ -6813,8 +7983,12 @@
         <f t="shared" si="9"/>
         <v>181</v>
       </c>
-    </row>
-    <row r="96" spans="2:16">
+      <c r="R95">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="96" spans="2:18">
       <c r="B96">
         <v>186</v>
       </c>
@@ -6858,8 +8032,12 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="2:16">
+      <c r="R96">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="97" spans="2:18">
       <c r="B97">
         <v>483</v>
       </c>
@@ -6903,8 +8081,12 @@
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="98" spans="2:16">
+      <c r="R97">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="98" spans="2:18">
       <c r="B98">
         <v>288</v>
       </c>
@@ -6948,8 +8130,12 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="2:16">
+      <c r="R98">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="99" spans="2:18">
       <c r="B99">
         <v>132</v>
       </c>
@@ -6993,8 +8179,12 @@
         <f t="shared" si="9"/>
         <v>222</v>
       </c>
-    </row>
-    <row r="100" spans="2:16">
+      <c r="R99">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="100" spans="2:18">
       <c r="B100">
         <v>145</v>
       </c>
@@ -7038,8 +8228,12 @@
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="101" spans="2:16">
+      <c r="R100">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="101" spans="2:18">
       <c r="B101">
         <v>188</v>
       </c>
@@ -7083,8 +8277,12 @@
         <f t="shared" si="9"/>
         <v>153</v>
       </c>
-    </row>
-    <row r="102" spans="2:16">
+      <c r="R101">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="102" spans="2:18">
       <c r="B102">
         <v>126</v>
       </c>
@@ -7128,8 +8326,12 @@
         <f t="shared" si="9"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="103" spans="2:16">
+      <c r="R102">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="103" spans="2:18">
       <c r="B103">
         <v>632</v>
       </c>
@@ -7173,8 +8375,12 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="2:16">
+      <c r="R103">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="104" spans="2:18">
       <c r="B104">
         <v>120</v>
       </c>
@@ -7218,8 +8424,12 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="2:16">
+      <c r="R104">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="105" spans="2:18">
       <c r="B105">
         <v>139</v>
       </c>
@@ -7263,8 +8473,12 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="2:16">
+      <c r="R105">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="106" spans="2:18">
       <c r="B106">
         <v>129</v>
       </c>
@@ -7308,8 +8522,12 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="2:16">
+      <c r="R106">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="107" spans="2:18">
       <c r="B107">
         <v>229</v>
       </c>
@@ -7353,8 +8571,12 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:16">
+      <c r="R107">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="108" spans="2:18">
       <c r="B108">
         <v>154</v>
       </c>
@@ -7398,8 +8620,12 @@
         <f t="shared" si="9"/>
         <v>543</v>
       </c>
-    </row>
-    <row r="109" spans="2:16">
+      <c r="R108">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+    <row r="109" spans="2:18">
       <c r="B109">
         <v>231</v>
       </c>
@@ -7442,10 +8668,147 @@
       <c r="P109">
         <f t="shared" si="9"/>
         <v>349</v>
+      </c>
+      <c r="R109">
+        <f>'Ark3'!$F$7</f>
+        <v>599.65700136264854</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A74843-49A2-4CEF-91CD-79B1AE6B80D7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1330162-7A9C-4623-916C-C7B3526EB4EE}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>76</v>
+      </c>
+      <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <f>A1-A2</f>
+        <v>-66</v>
+      </c>
+      <c r="E2">
+        <f>B1-B2</f>
+        <v>-41</v>
+      </c>
+      <c r="F2">
+        <f>SQRT(D2^2+E2^2)</f>
+        <v>77.698133825723247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>127</v>
+      </c>
+      <c r="B3">
+        <v>132</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="0">A2-A3</f>
+        <v>-51</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="1">B2-B3</f>
+        <v>-81</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="2">SQRT(D3^2+E3^2)</f>
+        <v>95.718336801262907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>384</v>
+      </c>
+      <c r="B4">
+        <v>167</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-257</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>-35</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>259.37231926325524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>470</v>
+      </c>
+      <c r="B5">
+        <v>310</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-86</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-143</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>166.86821147240718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="F7">
+        <f>SUM(F2:F5)</f>
+        <v>599.65700136264854</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>